--- a/hatalar.xlsx
+++ b/hatalar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Konuklarımız ne yaptığımız güzel yemekleri yedi ne el yapımı içeceklerimizden içti.</t>
+          <t>Sen de amma mutlusun.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -518,7 +518,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kendimdeki ve etrafımdaki olayları gün geçtikçe daha iyi anlamaya başlamıştım.</t>
+          <t>Bunca yaşadığım, gördüğüm, duyduğum şeylerden sonra onu sevmeyecek değilim.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Az önce toplantıda öne sürdüğün fikir müthiş!</t>
+          <t>Onca işinin gücünün arasında ailesini de bırakıp yanımıza gelerek bizi yüzüstü bırakmadın.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -578,17 +578,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bu yıl kış mevsimi çok sert geçti, soğuğu sevmiyorum.</t>
+          <t>Az önce toplantıda öne sürdüğün fikir müthiş!</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D8" t="b">
@@ -598,7 +598,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Şu uygulamadan bulduğum videoyu soluksuz bir şekilde izledim.</t>
+          <t>Bu sayfada paylaşılan oyun benim beklediğim kadar kötü çıkmadı.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bugüne kadar gördüğüm en abartılmış oyuncu olma yolunda ilerliyorsun.</t>
+          <t>Okulun yeniden açılması umduğum kadar kötü olmadı.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">negatif </t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D10" t="b">
@@ -638,7 +638,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bu kötü ortamda seninle bu güzel sohbeti yapmak beni çok rahatlatıyor.</t>
+          <t>Şu uygulamadan bulduğum videoyu soluksuz bir şekilde izledim.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -658,7 +658,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bu kaldırım taşlarının bu kadar güzel olduğunu daha önce fark etmemiştim.</t>
+          <t>Bugüne kadar gördüğüm en abartılmış oyuncu olma yolunda ilerliyorsun.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t xml:space="preserve">negatif </t>
         </is>
       </c>
       <c r="D12" t="b">
@@ -678,7 +678,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Geceleri iyi bir uyku uyuyamamaktan nefret ediyorum.</t>
+          <t>Bu güzel havada başıma böyle bir şeyin gelmesi beni çok rahatsız ediyor.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -698,17 +698,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bu filmi seninle birlikte tekrar tekrar izlemeye bayılıyorum.</t>
+          <t>Senin yaptıkların yüzünden sevdiğim işleri yapamamaktan nefret ediyorum.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D14" t="b">
@@ -718,17 +718,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Uzun zamandır beklediğimiz bu yarışma hüsran ile sonuçlandı.</t>
+          <t>Bu kaldırım taşlarının bu kadar güzel olduğunu daha önce fark etmemiştim.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D15" t="b">
@@ -738,17 +738,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Geri bildirim hızı, bu kadar hızlı olan bir site gördüğümü hatırlamıyorum.</t>
+          <t>Rezalet bir hizmet anlayışınız olduğu için sizi kınıyorum.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D16" t="b">
@@ -758,7 +758,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Kendimdeki ve etrafımdaki olayları gün geçtikçe daha iyi anlamaya başlamıştım.</t>
+          <t>Geri bildirim hızı, bu kadar hızlı olan bir site gördüğümü hatırlamıyorum.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D17" t="b">
@@ -798,7 +798,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Müzeye taşınan elmasın öyle paha biçilemez bir güzelliği vardı ki değerini daha da iyi anladım.</t>
+          <t>Dürüstlük onun için en önemli şeydi, kimseye yalan söylemezdi.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -818,7 +818,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Tüm derslerini başarıyla tamamlayarak takdir belgesi almaya hak kazandı.</t>
+          <t>Çok duygusal bir insan olduğu için söyleyeceklerimizi iki kere düşünür, onu kırmamaya dikkat ederdik.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Babası hastayken umudunu hiç kaybetmeyerek babasının iyileşmesinde en büyük rolü o üstlendi.</t>
+          <t>İyi dostlar destek olur. En iyi dostlar ise hiçbir şey olmamış gibi davranır.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -858,7 +858,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>İyi dostlar destek olur. En iyi dostlar ise hiçbir şey olmamış gibi davranır.</t>
+          <t>Merhametli olmak ağlayanla ağlamak değildir. Ağlayanın gözyaşını dindirecek bir çözüm yolu bulmak ya bulmaya çalışmaktır.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -878,7 +878,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Merhametli olmak ağlayanla ağlamak değildir. Ağlayanın gözyaşını dindirecek bir çözüm yolu bulmak ya bulmaya çalışmaktır.</t>
+          <t>Yaptığı başarılı işlere rağmen çok mütevazi bir insan olduğundan dolayı övülmeyi hiç sevmezdi.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -898,7 +898,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Yaptığı başarılı işlere rağmen çok mütevazi bir insan olduğundan dolayı övülmeyi hiç sevmezdi.</t>
+          <t>Aylarca yılmadan çalışan ekip, ortaya mükemmel bir proje çıkartarak dereceye girdi.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -918,17 +918,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aylarca yılmadan çalışan ekip, ortaya mükemmel bir proje çıkartarak dereceye girdi.</t>
+          <t>Film galasında giydiği modası geçmiş giysilerle hepimizin gözlerini kanattı.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D25" t="b">
@@ -938,17 +938,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Yıllarca süründükten sonra şans eseri bir gecede yıldızı parladı ve bu günlere geldi.</t>
+          <t>Başımın ağrısı o kadar kuvvetliydi ki öleceğimi zannettim.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D26" t="b">
@@ -958,7 +958,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Film galasında giydiği modası geçmiş giysilerle hepimizin gözlerini kanattı.</t>
+          <t>Karşıya geçmek isterken kamyonun altında kalan kadının hayatını kaybettiği anlar yayında.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -978,7 +978,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Başımın ağrısı o kadar kuvvetliydi ki öleceğimi zannettim.</t>
+          <t>Egoist bir insan olduğu için onunla konuşmamayı tercih ediyorum.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1018,17 +1018,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Buradaki markette istediğim markanın ürününü bulamadığım için şanssız hissediyorum.</t>
+          <t>Bu eser serginin olmazsa olmaz eşsiz parçalarından birisidir.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D30" t="b">
@@ -1038,7 +1038,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bu eser serginin olmazsa olmaz eşsiz parçalarından birisidir.</t>
+          <t>Yarınki doğum günü partimi düşündükçe heyecandan yerimde duramıyorum.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1058,17 +1058,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Yarınki doğum günü partimi düşündükçe heyecandan yerimde duramıyorum.</t>
+          <t>Beklediğim  kadar iyi bir tecrübe edinemediğim için üzgünüm.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D32" t="b">
@@ -1078,17 +1078,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Günün bir kısmını kardeşlerimle geçirmek kadar güzel bir şey yok.</t>
+          <t>Onun açısından düşününce bunun faydalı olacağını düşünmüyorum.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D33" t="b">
@@ -1098,7 +1098,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ne olursa olsun yanımda durmaktan vazgeçmediğin için teşekkür ederim.</t>
+          <t>Başladığın bir işi bu kadar kusursuz yapılabileceğini hiç hayal etmemiştim.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1118,7 +1118,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Gideceğimiz yerde çok rahat bir şekilde yaşayabileceğimiz için bizden mutlusu yok.</t>
+          <t>Durduğumuz dinlenme tesisi muhteşem bir manzaraya sahipti .</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1138,7 +1138,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Başladığın bir işi bu kadar kusursuz yapılabileceğini hiç hayal etmemiştim.</t>
+          <t>Annesi çocuğunun kötü bir şey yaptığını düşünmediği için onu uyarma gereği duymadı.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1158,7 +1158,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Durduğumuz dinlenme tesisi muhteşem bir manzaraya sahipti .</t>
+          <t>Güvendiğim kişilerle birlikte olunca hiçbir şüphe duymadan istediğim yolda yürümeye devam edebiliyorum.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1178,7 +1178,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ailem yanımda olduğu sürece sırtımın yere gelmeyeceğini biliyorum ve seviniyorum.</t>
+          <t>Bu hafta sonu girdiğim ehliyet sınavı çok iyi geçtiği için yarın akşam arkadaşlarımla kutlama yemeğine çıkacağız.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1198,7 +1198,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Annesi çocuğunun kötü bir şey yaptığını düşünmediği için onu uyarma gereği duymadı.</t>
+          <t>Tatilde kaldığım 5 yıldızlı otelin balkonunun manzarasının güzelliği hala aklımdan çıkmıyor.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1218,17 +1218,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Başımdan geçen onca olaya rağmen iyi düşünmeye çalışıyorum.</t>
+          <t>Akşam yemeği için vermiş olduğum yemek siparişim çok geç geldiğinden dolayı yemekler soğumuştu.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D40" t="b">
@@ -1238,7 +1238,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Günün sonunda yine ben kazanmış olacağım için hiç olmadığım kadar mutluyum .</t>
+          <t>Babasının da dediği gibi birkaç günlük tatil fikri fena değilmiş.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1258,7 +1258,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Yaptığı hatayı telafi etmek için bu kadar çabaladığını görünce onun hakkında düşüncelerim iyi yönde değişti.</t>
+          <t>Okula gelmeden önce aldığı güzel haber ile artık içi içine sığmıyordu.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1278,7 +1278,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Gün geçtikçe aramızdaki ilişkinin daha da büyümesi  beni hiç olmadığım kadar mutlu ediyor.</t>
+          <t>Birkaç gündür hasta olduğu için okula gelmeyen arkadaşının geleceğini duyunca sevindi.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1298,17 +1298,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bu hafta sonu girdiğim ehliyet sınavı çok iyi geçtiği için yarın akşam arkadaşlarımla kutlama yemeğine çıkacağız.</t>
+          <t>Durumun iyi olacağına dair küçük bir umudu dahi yoktu artık.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D44" t="b">
@@ -1318,17 +1318,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Yaptığı ilk iş başvurusu kısa sürede kabul edilince sevinç çığlıkları atmaya başladı.</t>
+          <t>Okula gelirken giydiği mavi gömlek ile hiç de iyi görünmüyordu</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D45" t="b">
@@ -1338,17 +1338,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Tatilde kaldığım 5 yıldızlı otelin balkonunun manzarasının güzelliği hala aklımdan çıkmıyor.</t>
+          <t>Çalan şarkı ile birlikte aklına gelenler yüzünden gözleri dolmuştu.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D46" t="b">
@@ -1358,7 +1358,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2020 yılında korona virüs hastalığı başladığı için hiç güzel bir sene değildi.</t>
+          <t>Evden gelen sesler ile birlikte hırsız girdiğini düşünüp çok kokrmuştu.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1378,7 +1378,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Kuzenim yeni aldığı bisikleti sürerken taşlı yollarda dengesini kaybedip düşmüş.</t>
+          <t>Begüm ablasıyla birlikte izlediği filmden çok etkilenmiş günlerce ağlamıştı.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1398,7 +1398,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Bu sene İzmir'de olan depremde binaların temelleri sağlam olmadığı için yıkılmış.</t>
+          <t>Gün geçtikçe hayata dair umutlarının artık tamamen tükendiğini düşünüyordu</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1418,17 +1418,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Kaldığım yurtta soğuk havalarda kaloriferleri açmadıkları için hasta oldum ve okula gidemedim.</t>
+          <t>En zor anında insanın yanında olan ailesi ve dostlarıymış</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D50" t="b">
@@ -1438,17 +1438,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Ayşe ikinci kez korona virüs hastalığına yakalandığı için çok mutsuzdu.</t>
+          <t>İnan ben de çocukluğumun geçtiği sokakları çok özledim</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D51" t="b">
@@ -1458,7 +1458,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Akşam yemeği için vermiş olduğum yemek siparişim çok geç geldiğinden dolayı yemekler soğumuştu.</t>
+          <t>Maaşım artık bana yetmemeye başladı</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1478,17 +1478,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Yetenekli olduğu için ilkokul öğretmeninin yönlendirmesiyle severek resim çizmeye başlamıştı.</t>
+          <t>Bu kitaptaki ana karakterin babası çok itici bir insan</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D53" t="b">
@@ -1498,17 +1498,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Babasının da dediği gibi birkaç günlük tatil fikri fena değilmiş.</t>
+          <t>Dün arkadaşım arabası ile kaza yapmış</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D54" t="b">
@@ -1518,17 +1518,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Tuttukları takım şampiyon olunca taraftarların yaşadığı sevinç tarif edilemeyecek kadar büyüktü.</t>
+          <t>Ankaranın yolları çok taşlıymış</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D55" t="b">
@@ -1538,17 +1538,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Okula gelmeden önce aldığı güzel haber ile artık içi içine sığmıyordu.</t>
+          <t xml:space="preserve">Ödevi yaparken artık elim ağrımaya başladı </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D56" t="b">
@@ -1558,17 +1558,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Aldığı haberle birlikte parlamaya başlayan yeşil gözleri mutluluğunu belli ediyordu.</t>
+          <t>Malesef yarın gelemeyeceğim babam hastalandı</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D57" t="b">
@@ -1578,17 +1578,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Birkaç gündür hasta olduğu için okula gelmeyen arkadaşının geleceğini duyunca sevindi.</t>
+          <t>Venom filmi baya kötüymüş</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D58" t="b">
@@ -1598,17 +1598,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Geçen gün kırılan vazonun yenisi ile değiştirilmiş olduğunu görünce gülümsedi.</t>
+          <t>Dün yemeği yaparken yemeği yakmışım</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D59" t="b">
@@ -1618,17 +1618,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sipariş ettiği kitaplar baskısı olmadığı için bir ay geç geldi.</t>
+          <t xml:space="preserve">	Koltuğa doğru yürürken masanın üzerindeki fotoğraf dikkatimi çekti, ne kadar da tatlıymışsın!</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D60" t="b">
@@ -1638,17 +1638,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Çalan şarkı ile birlikte aklına gelenler yüzünden gözleri dolmuştu.</t>
+          <t xml:space="preserve">	Dürüst olmak gerekirse benim de kalbim ona karşı boş değil.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D61" t="b">
@@ -1658,17 +1658,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Evden gelen sesler ile birlikte hırsız girdiğini düşünüp çok kokrmuştu.</t>
+          <t xml:space="preserve">	Kafamın içinde bu bahsettiğin konulara benzer düşünceler yok dersem yalan olur.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D62" t="b">
@@ -1678,17 +1678,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Begüm ablasıyla birlikte izlediği filmden çok etkilenmiş günlerce ağlamıştı.</t>
+          <t xml:space="preserve">	Geçen cumartesi günü gittiğiniz okulun tanışma partisine çağırsaydın gelmez miydim?</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D63" t="b">
@@ -1698,17 +1698,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Gün geçtikçe hayata dair umutlarının artık tamamen tükendiğini düşünüyordu</t>
+          <t xml:space="preserve">	Derse yetişmem için yakalamam gereken son otobüsü yakalamayı başardım ve derse yetiştim.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D64" t="b">
@@ -1718,7 +1718,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Kendimdeki ve etrafımdaki olayları gün geçtikçe daha iyi anlamaya başlıyorum</t>
+          <t xml:space="preserve">	Okulumuzu temsil eden takımımız bilgi yarışmasından derece ile ayrılmış bulunmakta.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1738,17 +1738,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>En zor anında insanın yanında olan ailesi ve dostlarıymış</t>
+          <t xml:space="preserve">	Başımıza ne işler açtın sen, çık çıkabilirsen bu işin içinden.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D66" t="b">
@@ -1758,17 +1758,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>İnan ben de çocukluğumun geçtiği sokakları çok özledim</t>
+          <t xml:space="preserve">	Telefon uygulamasından söylemiş olduğum yemek, uygulamada yazan süreden geç geldi.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D67" t="b">
@@ -1778,17 +1778,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>İki gün sonra benim maaş hesabıma yatmış olacak ondan sonra gezmeye gidebiliriz</t>
+          <t xml:space="preserve">	Alışveriş sitesinden siparişini verdiğim tekerlekli sandalye yine zamanında bana ulaşmayacak.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D68" t="b">
@@ -1798,17 +1798,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Artık havalar baya ısınmaya başladı kış bitmiş gibi</t>
+          <t xml:space="preserve">	Yemekhane sırasının uzunluğu sebebiyle sıra bana geldiğinde tatlı alamamış oldum.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D69" t="b">
@@ -1818,7 +1818,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Dün akşam televizyonda çıkan filmden hiç zevk alamadım</t>
+          <t xml:space="preserve">	Arkadaşımı ne kadar sevsem de güzel olmayan sesi ile şarkı söylemesi beni rahatsız ediyor.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1838,7 +1838,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Bu kitaptaki ana karakterin babası çok itici bir insan</t>
+          <t xml:space="preserve">	Kendisi ne kadar iyi bir insan olsa da öfke sorunları var.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1858,7 +1858,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Dün arkadaşım arabası ile kaza yapmış</t>
+          <t xml:space="preserve">	Uzak mesafede oturduğum için sabah erken kalkmak fazlasıyla yorucu oluyor.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1878,17 +1878,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Aldığım buzdolabı bu sabah bir anda sessizleşip bozuldu</t>
+          <t>Bir programlama dilini öğnrendikten sonra diğerlerini öğrenmek çok daha kolay geliyor.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D73" t="b">
@@ -1898,17 +1898,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Ankaranın yolları çok taşlıymış</t>
+          <t>Bunca çalışma ve emekten sonra nihayet tüm derslerini geçebilmişti.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D74" t="b">
@@ -1918,17 +1918,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Malesef yarın gelemeyeceğim babam hastalandı</t>
+          <t>Kasa bilgisayarlar daha sessiz ve soğuk olsalar da dizüstü bilgisayarları daha çok seviyorum.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D75" t="b">
@@ -1938,7 +1938,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Venom filmi baya kötüymüş</t>
+          <t>RGB ekipmanları sevsem de fazla ışıklar beni çok rahatsız ediyor.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D76" t="b">
@@ -1958,7 +1958,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Dün yemeği yaparken yemeği yakmışım</t>
+          <t>Bazı romanların olayları fazla uzatması beni o romandan soğutuyor.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D77" t="b">
@@ -1978,7 +1978,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Koltuğa doğru yürürken masanın üzerindeki fotoğraf dikkatimi çekti, ne kadar da tatlıymışsın!</t>
+          <t>Küçük ama çok işlevsel alet ve cihazlara hayranım.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D78" t="b">
@@ -1998,7 +1998,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Dürüst olmak gerekirse benim de kalbim ona karşı boş değil.</t>
+          <t>Evdeki sakinlik ve rahatı başka bir şeye değişmem.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D79" t="b">
@@ -2018,7 +2018,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Kafamın içinde bu bahsettiğin konulara benzer düşünceler yok dersem yalan olur.</t>
+          <t>Zamanında ilgilendiği felç hastasının şu anda yürüyebiliyor olduğu gördüğünde mutluluktan göz yaşlarını tutamadı.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D80" t="b">
@@ -2038,7 +2038,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Eskiden öğrenmekte zorlandığım konuyu, bu kurs sayesinde kolayca öğrenmiş oldum.</t>
+          <t>İki şirkette yaptıkları ortak anlaşmadan dolayı toplantıdan memnun ayrıldılar.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D81" t="b">
@@ -2058,17 +2058,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Geçen cumartesi günü gittiğiniz okulun tanışma partisine çağırsaydın gelmez miydim?</t>
+          <t>Gece yarısı gençlerin sokaktaki bağrışmalarını duyan yaşlı adam sinirle homurdanarak yatağından kalktı.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D82" t="b">
@@ -2078,17 +2078,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Okulumuzu temsil eden takımımız bilgi yarışmasından derece ile ayrılmış bulunmakta.</t>
+          <t>Saatlerdir sınav kağıtlarını okumaktan yorulmuş okuma gözlüğü artık canını yakmaya başlamıştı.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D83" t="b">
@@ -2098,7 +2098,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Bu problem çok zor görünüyor, bana sorarsan bunu öğretmen dahi çözemez.</t>
+          <t>Doktor covid testinin pozitif çıktığını söylediğinde kendini bir an çok kötü hissetti.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D84" t="b">
@@ -2118,7 +2118,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Okulun hazırladığı gösteriye, işte oldukları için ne annem ne de babam gelebildi.</t>
+          <t>Ayrıca belirtmeliyim ki ülke ekonomimizin bu kadar kötü olması beni de üzmüyor değil.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D85" t="b">
@@ -2138,7 +2138,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Başımıza ne işler açtın sen, çık çıkabilirsen bu işin içinden.</t>
+          <t>Yeğenimin gece köpek saldırısına uğraması ailedeki herkesin keyfini kaçırdı.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D86" t="b">
@@ -2158,7 +2158,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Telefon uygulamasından söylemiş olduğum yemek, uygulamada yazan süreden geç geldi.</t>
+          <t>Bu tarz olayları bu kadar sık yaşamak onu yormuş ve bıktırmıştı hayattan.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D87" t="b">
@@ -2178,7 +2178,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Yemekhane sırasının uzunluğu sebebiyle sıra bana geldiğinde tatlı alamamış oldum.</t>
+          <t>Yorucu günden sonra koltukta uyuyakalmış gördüğü kabusun etkisiyle ter içinde çığlıkla uyandı.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D88" t="b">
@@ -2198,17 +2198,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Uzak mesafede oturduğum için sabah erken kalkmak fazlasıyla yorucu oluyor.</t>
+          <t>Bazı insanların hala makineleşmemiş olması beni mutlu ediyor.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D89" t="b">
@@ -2218,7 +2218,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Otobüse binmek beni artık pek de yormuyor.</t>
+          <t>Bu pis dünyada insan görmemiş ormanların güzelliği güneşin doğmasını sağlıyor.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2238,7 +2238,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Bir programlama dilini öğnrendikten sonra diğerlerini öğrenmek çok daha kolay geliyor.</t>
+          <t>Kadın ile erkekler elbette eşit değiller, erkeklerin böyle muhteşem varlıklara karşı hiç şansı yok</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2258,17 +2258,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Bunca çalışma ve emekten sonra nihayet tüm derslerini geçebilmişti.</t>
+          <t>Onun yaşamının yokuş aşağı gittiği yıl, benimki de yokuş aşağı gittti.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D92" t="b">
@@ -2278,17 +2278,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Denizin olduğu şehirler olmadığı şehirlere göre çok daha fazla sevilir.</t>
+          <t>Kadın erkek erdemlerine sahipse kaçıp gitmeli ondan.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D93" t="b">
@@ -2298,7 +2298,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Bazı romanların olayları fazla uzatması beni o romandan soğutuyor.</t>
+          <t>Beni umursuyormuş(!) Bir gece odasında boş ilaç kutusu ve bir oda polisle uğurladım.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2318,17 +2318,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Kar yağdığında kar taneleri havadaki sesi tutuyor, ve o sessizlik çok hoşuma gidiyor.</t>
+          <t>Benim sonbaharımda ağaçlar yaprak dökmüyor, bir ilmek sallanıyor sadece.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D95" t="b">
@@ -2338,17 +2338,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Gözlük takmak lens takmaya kıyasla çok daha iyi bana kalırsa.</t>
+          <t>Öğrendim ki en sevdiğim dizi "You" 3. sezonda hikaye değişikliğine başvurrmuş.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D96" t="b">
@@ -2358,17 +2358,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Evdeki sakinlik ve rahatı başka bir şeye değişmem.</t>
+          <t>Bu sezon şampiyonluk hayalimiz gerçek olamayacak arkadaşlar.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D97" t="b">
@@ -2378,17 +2378,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Klavye ile çok hızlı yazı yazmaya bayılıyorum.</t>
+          <t>Çok severek izlediğim dizinin son 3 bölümü kaldı sadece.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D98" t="b">
@@ -2398,7 +2398,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Mekanik klavyeler çok ses çıkarmasa da hissiyatlarından dolayı seviyorum.</t>
+          <t>Dün akşam izlediğim film aslında çok da fena değildi.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2418,17 +2418,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bu ödev neden hala bitmiyor anlayamıyorum.</t>
+          <t>Bugün dışarıya çıkarken bot giydiğim için ayaklarım ıslanmadı ve sıcak kaldı.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D100" t="b">
@@ -2438,7 +2438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Telefonunu apartmanın ikinci katından düşürmüş ama çizik dahi olmadığını görünce rahatlamıştı.</t>
+          <t>Ayakkabı fiyatları çok pahalı ama indirim kuponu bulduğum için ucuza geldi ve param cebimde kaldı.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2458,7 +2458,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Uzun süredir görmediğim babamı havalimanında bana güleryüzle bakarken görünce koşup sarıldım ona.</t>
+          <t>Yakın zamanda bir bağlama kursu vardı. Ona katıldım ve artık bağlama çalabiliyorum.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2478,7 +2478,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>İki şirkette yaptıkları ortak anlaşmadan dolayı toplantıdan memnun ayrıldılar.</t>
+          <t>Adam kendini bir turşuya dönüştürdü! Bu gerçekten ama gerçekten aşırı komik bir olay!</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2498,17 +2498,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Gece yarısı gençlerin sokaktaki bağrışmalarını duyan yaşlı adam sinirle homurdanarak yatağından kalktı.</t>
+          <t>Kendimi bildim bileli insanlarla iletişim kurma konusunda normalden bir tık fazla becerikliyim.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D104" t="b">
@@ -2518,7 +2518,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Bir yıldan fazladır beslediği sokak köpeklerinin toplandığını duyduğunda hüngür hüngür ağladı.</t>
+          <t>Bedenim özgür kalsa neye yarar. İçimde kalanlar ruhumu her gün daha fazla acıtır.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2538,7 +2538,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Düşünce dizi kanamaya başlayan çocuk acısına dayanamayıp ağlamaya başladı.</t>
+          <t>Araba ile yolda giderken benzin bitti ve in cin top oynayan yerde yolda kaldık.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2558,7 +2558,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Ayrıca belirtmeliyim ki ülke ekonomimizin bu kadar kötü olması beni de üzmüyor değil.</t>
+          <t>Çocukken beni tam parmağımın ucundan arı sokmuştu canım muazzam yanmıştı.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2578,7 +2578,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Yeğenimin gece köpek saldırısına uğraması ailedeki herkesin keyfini kaçırdı.</t>
+          <t>Ne kaldı bak ellerimde, biliyorum gülüyorsun. Her adımım daha derine, ölüyorum.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2598,17 +2598,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Bu tarz olayları bu kadar sık yaşamak onu yormuş ve bıktırmıştı hayattan.</t>
+          <t>Bu dayanılmaz güzelliğe, sese nasıl hayır diyebilirdim bilmiyorum.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D109" t="b">
@@ -2618,17 +2618,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Yorucu günden sonra koltukta uyuyakalmış gördüğü kabusun etkisiyle ter içinde çığlıkla uyandı.</t>
+          <t>Kapıdan çıkıtğı anda ayağı takıldı, fakat arkasından onu nazikçe tutan bir el, onu bu kötü durumdan daha içine girmeden kurtardı.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D110" t="b">
@@ -2638,7 +2638,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Bazı insanların hala makineleşmemiş olması beni mutlu ediyor.</t>
+          <t>Sosyal medya platformlarında yaptığı birçok başarısız girişimin sonucunda büyük bir başarı yakaladı.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2658,7 +2658,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Bu pis dünyada insan görmemiş ormanların güzelliği güneşin doğmasını sağlıyor.</t>
+          <t>Çok hastaydı fakat  annesini her görüşünde içi ısınır, yumuşak bir gülümseme yerleştirirdi yüzüne.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2678,7 +2678,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Bir çocuğun anne sevgisi gibiydi benim sevgim, hiç bitmezcesine.</t>
+          <t>Her hafta okuluna aksatmadan gider, inci gibi notlar tutardı.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2698,7 +2698,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Önümüzdeki aydan itibaren %25 zam alacağım için çok mutluyum.</t>
+          <t>Müziğin ilk notalarında kendini kaybediyor, büyük bir zevkle dans etmeye başlıyor.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2718,17 +2718,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>İnsanların toplumsal yerine bireysel farkındalıklarını keşfetmeleri sevindirici bir gelişme</t>
+          <t>Kendi bölümü hakkında şaşırtıcı derecede az fikre sahipti.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D115" t="b">
@@ -2738,17 +2738,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Kadın ile erkekler elbette eşit değiller, erkeklerin böyle muhteşem varlıklara karşı hiç şansı yok</t>
+          <t>Bu kadar hızlı gelişen bir teknolojinin duvarları arasında tıkılıp kalan çocuklar, sosyallikten mahrum bir şekilde büyüyor.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D116" t="b">
@@ -2758,17 +2758,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Yazdığım kitabın bu genç arkadaşıma yol göstermesi kadar güzel bir his yok şu anda.</t>
+          <t>Öldüğünde çocuklarına üç kuruş bırakamadı, göçtü gitti.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D117" t="b">
@@ -2778,7 +2778,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>İstanbul demek ha, böyle bir güzellik için yazılanlar yetersiz bile.</t>
+          <t>Babamın sözleri benim için paha biçilemezdi</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2798,7 +2798,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Zamanında yaptığım fedakarlıklar karşılıklarını vermeye başladılar.</t>
+          <t>Evde kimmse yokken bağırarak şarkı söylemeye bayılıyorum</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2818,7 +2818,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Onun yaşamının yokuş aşağı gittiği yıl, benimki de yokuş aşağı gittti.</t>
+          <t>Savaşlarda taraflar kazanmak uğruna onursuzca davranabiliyorlar</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2838,7 +2838,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>21 yaşımda canlılığımın tükenmişliğinde, hala yaşıyorum ama üç adım önümü göremiyorum.</t>
+          <t>Artık yaşamaktan keyif almadığımı farkettim</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2858,7 +2858,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Kadın erkek erdemlerine sahipse kaçıp gitmeli ondan.</t>
+          <t>Hep hayalini kurduğum bölümü kazanamadım</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2878,7 +2878,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Bir gün ne de olsa bırakırım demiştim, artık kokain bağımlısıyım.</t>
+          <t>Bilgisayarım sürekli donduğu için işlerimi yapamıyorum</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2898,7 +2898,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Beni umursuyormuş(!) Bir gece odasında boş ilaç kutusu ve bir oda polisle uğurladım.</t>
+          <t>Bu haberi duyana kadar günüm çok güzel geçiyordu</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2912,766 +2912,6 @@
         </is>
       </c>
       <c r="D124" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Öğrendim ki en sevdiğim dizi "You" 3. sezonda hikaye değişikliğine başvurrmuş.</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D125" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Bu sezon şampiyonluk hayalimiz gerçek olamayacak arkadaşlar.</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D126" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Çok severek izlediğim dizinin son 3 bölümü kaldı sadece.</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D127" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Dün akşam izlediğim film aslında çok da fena değildi.</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="D128" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Bugün dışarıya çıkarken bot giydiğim için ayaklarım ıslanmadı ve sıcak kaldı.</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="D129" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Karanlıkta gürleyen şelalenin içime huzur doldurması ben fazlasıyla mest ediyor.</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="D130" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Bana aynısından oldu, hiçbir şey olmuyor. Ertesi gün yine eskisi gibi mutluydum.</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="D131" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Bugün hava yağmurlu olmasına rağmen otobüs zamanında geldi ve işe geç kalmadığım için yöneticim beni tebrik etti.</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="D132" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Yakın zamanda bir bağlama kursu vardı. Ona katıldım ve artık bağlama çalabiliyorum.</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="D133" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Adam kendini bir turşuya dönüştürdü! Bu gerçekten ama gerçekten aşırı komik bir olay!</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="D134" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Kendimi bildim bileli insanlarla iletişim kurma konusunda normalden bir tık fazla becerikliyim.</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="D135" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Kendini ölümün sessiz huzuruna teslim eden Martin Eden artık bu dünada değil.</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D136" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Bedenim özgür kalsa neye yarar. İçimde kalanlar ruhumu her gün daha fazla acıtır.</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D137" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Gün geçtikçe masadan eksiliyor dostlar. Yalnız kalma korkusuyla huzursuz oluyorum.</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D138" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Bursada işlek bir yolda giderken hatalı sollama yaptığım için bir kaza yaptım.</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D139" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Araba ile yolda giderken benzin bitti ve in cin top oynayan yerde yolda kaldık.</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D140" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Gece güzel ama mahvetmek üzereyim yalan yok, hepinizi üzmek istiyorum.</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D141" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Çocukken beni tam parmağımın ucundan arı sokmuştu canım muazzam yanmıştı.</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D142" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Ne kaldı bak ellerimde, biliyorum gülüyorsun. Her adımım daha derine, ölüyorum.</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D143" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Kapıdan çıkıtğı anda ayağı takıldı, fakat arkasından onu nazikçe tutan bir el, onu bu kötü durumdan daha içine girmeden kurtardı.</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="D144" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Sosyal medya platformlarında yaptığı birçok başarısız girişimin sonucunda büyük bir başarı yakaladı.</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="D145" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Paylaşacak pek bir şeyi olmasa da arkadaş gruplarıyla takılmak onu çok mutlu eder.</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="D146" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Çok hastaydı fakat  annesini her görüşünde içi ısınır, yumuşak bir gülümseme yerleştirirdi yüzüne.</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="D147" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Her hafta okuluna aksatmadan gider, inci gibi notlar tutardı.</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="D148" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Müziğin ilk notalarında kendini kaybediyor, büyük bir zevkle dans etmeye başlıyor.</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="D149" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Kendi bölümü hakkında şaşırtıcı derecede az fikre sahipti.</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D150" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Bunlar bir iki yıllığına ABD'ye gidiyor,dönerken beraberlerinde orda gördükleri yalan yanlış şeyleri beraberlerinde getiriyorlardı.</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D151" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Yapılan bütün müdahalelere rağmen hayata gözlerini yumdu.</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D152" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Birbirini ezdi insanlar, yumruk kadar simsiyah bir somun ekmek için.</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D153" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Gün geçtikçe artar oldu derdim demiştim; üzülmesin öldüğünde geçer demişsin.</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D154" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Öldüğünde çocuklarına üç kuruş bırakamadı, göçtü gitti.</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D155" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Babamın sözleri benim için paha biçilemezdi</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="D156" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Evde kimmse yokken bağırarak şarkı söylemeye bayılıyorum</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="D157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Hep hayalini kurduğum bölümü kazanamadım</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Bilgisayarım sürekli donduğu için işlerimi yapamıyorum</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Bu haberi duyana kadar günüm çok güzel geçiyordu</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Çikolatayı çok seviyorum ama mideme dokunuyor</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Kendimiz doğru ifade etmeye çalışırken cümlelerimizi özenle seçmeliyiz.</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="D162" t="b">
         <v>0</v>
       </c>
     </row>

--- a/hatalar.xlsx
+++ b/hatalar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Neden gelmemesi heyecan verici?</t>
+          <t>Bunca saat boyunca bütün işittiğin bu sözlerden sonra, uyu uyuyabilirsen!</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -478,7 +478,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sen de amma mutlusun.</t>
+          <t>Sen gel de kolaysa bu kadar fazla işin içinden çık bakalım!</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -518,17 +518,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bunca yaşadığım, gördüğüm, duyduğum şeylerden sonra onu sevmeyecek değilim.</t>
+          <t>Kesinlikle dediğin bütün sözleri şuan tam anlamıyla gerçekleştirdin!</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D5" t="b">
@@ -538,7 +538,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Annem ve babam bu soğuk havada dondurma yememe izin veriyor.</t>
+          <t>Bunca yaşadığım, gördüğüm, duyduğum şeylerden sonra onu sevmeyecek değilim.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Onca işinin gücünün arasında ailesini de bırakıp yanımıza gelerek bizi yüzüstü bırakmadın.</t>
+          <t>Annem ve babam bu soğuk havada dondurma yememe izin veriyor.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Az önce toplantıda öne sürdüğün fikir müthiş!</t>
+          <t>Onca işinin gücünün arasında ailesini de bırakıp yanımıza gelerek bizi yüzüstü bırakmadın.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -598,17 +598,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bu sayfada paylaşılan oyun benim beklediğim kadar kötü çıkmadı.</t>
+          <t>Gördün mü iki yüzlüyü nasıl da bizi sattı?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D9" t="b">
@@ -618,7 +618,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Okulun yeniden açılması umduğum kadar kötü olmadı.</t>
+          <t>Bu sayfada paylaşılan oyun benim beklediğim kadar kötü çıkmadı.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -638,7 +638,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Şu uygulamadan bulduğum videoyu soluksuz bir şekilde izledim.</t>
+          <t>Okulun yeniden açılması umduğum kadar kötü olmadı.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -658,7 +658,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bugüne kadar gördüğüm en abartılmış oyuncu olma yolunda ilerliyorsun.</t>
+          <t>Şu uygulamadan bulduğum videoyu soluksuz bir şekilde izledim.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">negatif </t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D12" t="b">
@@ -678,17 +678,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bu güzel havada başıma böyle bir şeyin gelmesi beni çok rahatsız ediyor.</t>
+          <t>Bugüne kadar gördüğüm en abartılmış oyuncu olma yolunda ilerliyorsun.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t xml:space="preserve">negatif </t>
         </is>
       </c>
       <c r="D13" t="b">
@@ -698,7 +698,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Senin yaptıkların yüzünden sevdiğim işleri yapamamaktan nefret ediyorum.</t>
+          <t>Bu güzel havada başıma böyle bir şeyin gelmesi beni çok rahatsız ediyor.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -718,17 +718,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bu kaldırım taşlarının bu kadar güzel olduğunu daha önce fark etmemiştim.</t>
+          <t>Senin yaptıkların yüzünden sevdiğim işleri yapamamaktan nefret ediyorum.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D15" t="b">
@@ -738,7 +738,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rezalet bir hizmet anlayışınız olduğu için sizi kınıyorum.</t>
+          <t>Bu paragraflar daha önceki gördüğüm paragraflardan daha uzun olamazdı!</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -758,7 +758,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Geri bildirim hızı, bu kadar hızlı olan bir site gördüğümü hatırlamıyorum.</t>
+          <t>Bu kaldırım taşlarının bu kadar güzel olduğunu daha önce fark etmemiştim.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -778,17 +778,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Yapılan etkinlikteki yüzlerce katılımcıyı görüp heyecanlanmamak elde değildi.</t>
+          <t>Rezalet bir hizmet anlayışınız olduğu için sizi kınıyorum.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D18" t="b">
@@ -798,7 +798,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dürüstlük onun için en önemli şeydi, kimseye yalan söylemezdi.</t>
+          <t>Geri bildirim hızı, bu kadar hızlı olan bir site gördüğümü hatırlamıyorum.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D19" t="b">
@@ -818,7 +818,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Çok duygusal bir insan olduğu için söyleyeceklerimizi iki kere düşünür, onu kırmamaya dikkat ederdik.</t>
+          <t>Yapılan etkinlikteki yüzlerce katılımcıyı görüp heyecanlanmamak elde değildi.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>İyi dostlar destek olur. En iyi dostlar ise hiçbir şey olmamış gibi davranır.</t>
+          <t>Dürüstlük onun için en önemli şeydi, kimseye yalan söylemezdi.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -858,7 +858,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Merhametli olmak ağlayanla ağlamak değildir. Ağlayanın gözyaşını dindirecek bir çözüm yolu bulmak ya bulmaya çalışmaktır.</t>
+          <t>Çok duygusal bir insan olduğu için söyleyeceklerimizi iki kere düşünür, onu kırmamaya dikkat ederdik.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -878,7 +878,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Yaptığı başarılı işlere rağmen çok mütevazi bir insan olduğundan dolayı övülmeyi hiç sevmezdi.</t>
+          <t>İyi dostlar destek olur. En iyi dostlar ise hiçbir şey olmamış gibi davranır.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -898,7 +898,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aylarca yılmadan çalışan ekip, ortaya mükemmel bir proje çıkartarak dereceye girdi.</t>
+          <t>Merhametli olmak ağlayanla ağlamak değildir. Ağlayanın gözyaşını dindirecek bir çözüm yolu bulmak ya bulmaya çalışmaktır.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -918,17 +918,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Film galasında giydiği modası geçmiş giysilerle hepimizin gözlerini kanattı.</t>
+          <t>Yaptığı başarılı işlere rağmen çok mütevazi bir insan olduğundan dolayı övülmeyi hiç sevmezdi.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D25" t="b">
@@ -938,17 +938,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Başımın ağrısı o kadar kuvvetliydi ki öleceğimi zannettim.</t>
+          <t>Aylarca yılmadan çalışan ekip, ortaya mükemmel bir proje çıkartarak dereceye girdi.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D26" t="b">
@@ -958,7 +958,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Karşıya geçmek isterken kamyonun altında kalan kadının hayatını kaybettiği anlar yayında.</t>
+          <t>Film galasında giydiği modası geçmiş giysilerle hepimizin gözlerini kanattı.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -978,7 +978,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Egoist bir insan olduğu için onunla konuşmamayı tercih ediyorum.</t>
+          <t>Başımın ağrısı o kadar kuvvetliydi ki öleceğimi zannettim.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -998,7 +998,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>İzlediğimiz film o kadar korkunçtu ki kalp krizi geçirmemize ramak kalmıştı.</t>
+          <t>Karşıya geçmek isterken kamyonun altında kalan kadının hayatını kaybettiği anlar yayında.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1018,17 +1018,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bu eser serginin olmazsa olmaz eşsiz parçalarından birisidir.</t>
+          <t>Egoist bir insan olduğu için onunla konuşmamayı tercih ediyorum.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D30" t="b">
@@ -1038,17 +1038,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Yarınki doğum günü partimi düşündükçe heyecandan yerimde duramıyorum.</t>
+          <t>İzlediğimiz film o kadar korkunçtu ki kalp krizi geçirmemize ramak kalmıştı.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D31" t="b">
@@ -1058,17 +1058,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Beklediğim  kadar iyi bir tecrübe edinemediğim için üzgünüm.</t>
+          <t>Bu eser serginin olmazsa olmaz eşsiz parçalarından birisidir.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D32" t="b">
@@ -1078,17 +1078,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Onun açısından düşününce bunun faydalı olacağını düşünmüyorum.</t>
+          <t>Yarınki doğum günü partimi düşündükçe heyecandan yerimde duramıyorum.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D33" t="b">
@@ -1098,17 +1098,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Başladığın bir işi bu kadar kusursuz yapılabileceğini hiç hayal etmemiştim.</t>
+          <t>Beklediğim  kadar iyi bir tecrübe edinemediğim için üzgünüm.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D34" t="b">
@@ -1118,17 +1118,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Durduğumuz dinlenme tesisi muhteşem bir manzaraya sahipti .</t>
+          <t>Onun açısından düşününce bunun faydalı olacağını düşünmüyorum.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D35" t="b">
@@ -1138,7 +1138,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Annesi çocuğunun kötü bir şey yaptığını düşünmediği için onu uyarma gereği duymadı.</t>
+          <t>Başladığın bir işi bu kadar kusursuz yapılabileceğini hiç hayal etmemiştim.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1158,7 +1158,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Güvendiğim kişilerle birlikte olunca hiçbir şüphe duymadan istediğim yolda yürümeye devam edebiliyorum.</t>
+          <t>Durduğumuz dinlenme tesisi muhteşem bir manzaraya sahipti .</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1178,7 +1178,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bu hafta sonu girdiğim ehliyet sınavı çok iyi geçtiği için yarın akşam arkadaşlarımla kutlama yemeğine çıkacağız.</t>
+          <t>Annesi çocuğunun kötü bir şey yaptığını düşünmediği için onu uyarma gereği duymadı.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1198,7 +1198,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Tatilde kaldığım 5 yıldızlı otelin balkonunun manzarasının güzelliği hala aklımdan çıkmıyor.</t>
+          <t>Güvendiğim kişilerle birlikte olunca hiçbir şüphe duymadan istediğim yolda yürümeye devam edebiliyorum.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1218,17 +1218,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Akşam yemeği için vermiş olduğum yemek siparişim çok geç geldiğinden dolayı yemekler soğumuştu.</t>
+          <t>Bu hafta sonu girdiğim ehliyet sınavı çok iyi geçtiği için yarın akşam arkadaşlarımla kutlama yemeğine çıkacağız.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D40" t="b">
@@ -1238,7 +1238,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Babasının da dediği gibi birkaç günlük tatil fikri fena değilmiş.</t>
+          <t>Tatilde kaldığım 5 yıldızlı otelin balkonunun manzarasının güzelliği hala aklımdan çıkmıyor.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1258,17 +1258,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Okula gelmeden önce aldığı güzel haber ile artık içi içine sığmıyordu.</t>
+          <t>Akşam yemeği için vermiş olduğum yemek siparişim çok geç geldiğinden dolayı yemekler soğumuştu.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D42" t="b">
@@ -1278,7 +1278,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Birkaç gündür hasta olduğu için okula gelmeyen arkadaşının geleceğini duyunca sevindi.</t>
+          <t>Babasının da dediği gibi birkaç günlük tatil fikri fena değilmiş.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1298,17 +1298,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Durumun iyi olacağına dair küçük bir umudu dahi yoktu artık.</t>
+          <t>Okula gelmeden önce aldığı güzel haber ile artık içi içine sığmıyordu.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D44" t="b">
@@ -1318,7 +1318,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Okula gelirken giydiği mavi gömlek ile hiç de iyi görünmüyordu</t>
+          <t>Durumun iyi olacağına dair küçük bir umudu dahi yoktu artık.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1338,7 +1338,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Çalan şarkı ile birlikte aklına gelenler yüzünden gözleri dolmuştu.</t>
+          <t>Okula gelirken giydiği mavi gömlek ile hiç de iyi görünmüyordu</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1358,7 +1358,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Evden gelen sesler ile birlikte hırsız girdiğini düşünüp çok kokrmuştu.</t>
+          <t>Çalan şarkı ile birlikte aklına gelenler yüzünden gözleri dolmuştu.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1378,7 +1378,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Begüm ablasıyla birlikte izlediği filmden çok etkilenmiş günlerce ağlamıştı.</t>
+          <t>Evden gelen sesler ile birlikte hırsız girdiğini düşünüp çok kokrmuştu.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1398,7 +1398,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Gün geçtikçe hayata dair umutlarının artık tamamen tükendiğini düşünüyordu</t>
+          <t>Begüm ablasıyla birlikte izlediği filmden çok etkilenmiş günlerce ağlamıştı.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1418,17 +1418,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>En zor anında insanın yanında olan ailesi ve dostlarıymış</t>
+          <t>Gün geçtikçe hayata dair umutlarının artık tamamen tükendiğini düşünüyordu</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D50" t="b">
@@ -1438,7 +1438,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>İnan ben de çocukluğumun geçtiği sokakları çok özledim</t>
+          <t>En zor anında insanın yanında olan ailesi ve dostlarıymış</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1458,17 +1458,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Maaşım artık bana yetmemeye başladı</t>
+          <t>İnan ben de çocukluğumun geçtiği sokakları çok özledim</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D52" t="b">
@@ -1478,7 +1478,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Bu kitaptaki ana karakterin babası çok itici bir insan</t>
+          <t>Maaşım artık bana yetmemeye başladı</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1498,7 +1498,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Dün arkadaşım arabası ile kaza yapmış</t>
+          <t>Bu kitaptaki ana karakterin babası çok itici bir insan</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1518,7 +1518,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Ankaranın yolları çok taşlıymış</t>
+          <t>Dün arkadaşım arabası ile kaza yapmış</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1538,7 +1538,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ödevi yaparken artık elim ağrımaya başladı </t>
+          <t>Ankaranın yolları çok taşlıymış</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1558,7 +1558,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Malesef yarın gelemeyeceğim babam hastalandı</t>
+          <t xml:space="preserve">Ödevi yaparken artık elim ağrımaya başladı </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1578,7 +1578,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Venom filmi baya kötüymüş</t>
+          <t>Malesef yarın gelemeyeceğim babam hastalandı</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1598,7 +1598,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Dün yemeği yaparken yemeği yakmışım</t>
+          <t>Venom filmi baya kötüymüş</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1618,17 +1618,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Koltuğa doğru yürürken masanın üzerindeki fotoğraf dikkatimi çekti, ne kadar da tatlıymışsın!</t>
+          <t>Dün yemeği yaparken yemeği yakmışım</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D60" t="b">
@@ -1738,7 +1738,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Başımıza ne işler açtın sen, çık çıkabilirsen bu işin içinden.</t>
+          <t xml:space="preserve">	Gözlerimin içine bak ve söyle, böyle olmasını ben mi istedim?</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1758,7 +1758,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Telefon uygulamasından söylemiş olduğum yemek, uygulamada yazan süreden geç geldi.</t>
+          <t xml:space="preserve">	Başımıza ne işler açtın sen, çık çıkabilirsen bu işin içinden.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1778,7 +1778,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Alışveriş sitesinden siparişini verdiğim tekerlekli sandalye yine zamanında bana ulaşmayacak.</t>
+          <t xml:space="preserve">	Telefon uygulamasından söylemiş olduğum yemek, uygulamada yazan süreden geç geldi.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1798,7 +1798,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Yemekhane sırasının uzunluğu sebebiyle sıra bana geldiğinde tatlı alamamış oldum.</t>
+          <t xml:space="preserve">	Alışveriş sitesinden siparişini verdiğim tekerlekli sandalye yine zamanında bana ulaşmayacak.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1818,7 +1818,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Arkadaşımı ne kadar sevsem de güzel olmayan sesi ile şarkı söylemesi beni rahatsız ediyor.</t>
+          <t xml:space="preserve">	Yemekhane sırasının uzunluğu sebebiyle sıra bana geldiğinde tatlı alamamış oldum.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1838,7 +1838,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Kendisi ne kadar iyi bir insan olsa da öfke sorunları var.</t>
+          <t xml:space="preserve">	Arkadaşımı ne kadar sevsem de güzel olmayan sesi ile şarkı söylemesi beni rahatsız ediyor.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1858,7 +1858,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Uzak mesafede oturduğum için sabah erken kalkmak fazlasıyla yorucu oluyor.</t>
+          <t xml:space="preserve">	Kendisi ne kadar iyi bir insan olsa da öfke sorunları var.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1878,17 +1878,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Bir programlama dilini öğnrendikten sonra diğerlerini öğrenmek çok daha kolay geliyor.</t>
+          <t xml:space="preserve">	Uzak mesafede oturduğum için sabah erken kalkmak fazlasıyla yorucu oluyor.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D73" t="b">
@@ -1898,7 +1898,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Bunca çalışma ve emekten sonra nihayet tüm derslerini geçebilmişti.</t>
+          <t>Bir programlama dilini öğnrendikten sonra diğerlerini öğrenmek çok daha kolay geliyor.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1918,7 +1918,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Kasa bilgisayarlar daha sessiz ve soğuk olsalar da dizüstü bilgisayarları daha çok seviyorum.</t>
+          <t>Bunca çalışma ve emekten sonra nihayet tüm derslerini geçebilmişti.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1938,17 +1938,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>RGB ekipmanları sevsem de fazla ışıklar beni çok rahatsız ediyor.</t>
+          <t>Kasa bilgisayarlar daha sessiz ve soğuk olsalar da dizüstü bilgisayarları daha çok seviyorum.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D76" t="b">
@@ -1958,7 +1958,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Bazı romanların olayları fazla uzatması beni o romandan soğutuyor.</t>
+          <t>RGB ekipmanları sevsem de fazla ışıklar beni çok rahatsız ediyor.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1978,17 +1978,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Küçük ama çok işlevsel alet ve cihazlara hayranım.</t>
+          <t>Bazı romanların olayları fazla uzatması beni o romandan soğutuyor.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D78" t="b">
@@ -1998,7 +1998,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Evdeki sakinlik ve rahatı başka bir şeye değişmem.</t>
+          <t>Küçük ama çok işlevsel alet ve cihazlara hayranım.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2018,7 +2018,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Zamanında ilgilendiği felç hastasının şu anda yürüyebiliyor olduğu gördüğünde mutluluktan göz yaşlarını tutamadı.</t>
+          <t>Evdeki sakinlik ve rahatı başka bir şeye değişmem.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2038,7 +2038,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>İki şirkette yaptıkları ortak anlaşmadan dolayı toplantıdan memnun ayrıldılar.</t>
+          <t>Zamanında ilgilendiği felç hastasının şu anda yürüyebiliyor olduğu gördüğünde mutluluktan göz yaşlarını tutamadı.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2058,17 +2058,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Gece yarısı gençlerin sokaktaki bağrışmalarını duyan yaşlı adam sinirle homurdanarak yatağından kalktı.</t>
+          <t>İki şirkette yaptıkları ortak anlaşmadan dolayı toplantıdan memnun ayrıldılar.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D82" t="b">
@@ -2078,7 +2078,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Saatlerdir sınav kağıtlarını okumaktan yorulmuş okuma gözlüğü artık canını yakmaya başlamıştı.</t>
+          <t>Gece yarısı gençlerin sokaktaki bağrışmalarını duyan yaşlı adam sinirle homurdanarak yatağından kalktı.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2098,7 +2098,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Doktor covid testinin pozitif çıktığını söylediğinde kendini bir an çok kötü hissetti.</t>
+          <t>Saatlerdir sınav kağıtlarını okumaktan yorulmuş okuma gözlüğü artık canını yakmaya başlamıştı.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2118,7 +2118,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Ayrıca belirtmeliyim ki ülke ekonomimizin bu kadar kötü olması beni de üzmüyor değil.</t>
+          <t>Doktor covid testinin pozitif çıktığını söylediğinde kendini bir an çok kötü hissetti.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2138,7 +2138,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Yeğenimin gece köpek saldırısına uğraması ailedeki herkesin keyfini kaçırdı.</t>
+          <t>Ayrıca belirtmeliyim ki ülke ekonomimizin bu kadar kötü olması beni de üzmüyor değil.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2158,7 +2158,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Bu tarz olayları bu kadar sık yaşamak onu yormuş ve bıktırmıştı hayattan.</t>
+          <t>Yeğenimin gece köpek saldırısına uğraması ailedeki herkesin keyfini kaçırdı.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2178,7 +2178,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Yorucu günden sonra koltukta uyuyakalmış gördüğü kabusun etkisiyle ter içinde çığlıkla uyandı.</t>
+          <t>Bu tarz olayları bu kadar sık yaşamak onu yormuş ve bıktırmıştı hayattan.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2198,17 +2198,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Bazı insanların hala makineleşmemiş olması beni mutlu ediyor.</t>
+          <t>Yorucu günden sonra koltukta uyuyakalmış gördüğü kabusun etkisiyle ter içinde çığlıkla uyandı.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D89" t="b">
@@ -2218,7 +2218,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Bu pis dünyada insan görmemiş ormanların güzelliği güneşin doğmasını sağlıyor.</t>
+          <t>Bazı insanların hala makineleşmemiş olması beni mutlu ediyor.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2238,7 +2238,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Kadın ile erkekler elbette eşit değiller, erkeklerin böyle muhteşem varlıklara karşı hiç şansı yok</t>
+          <t>Bu pis dünyada insan görmemiş ormanların güzelliği güneşin doğmasını sağlıyor.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2258,17 +2258,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Onun yaşamının yokuş aşağı gittiği yıl, benimki de yokuş aşağı gittti.</t>
+          <t>Kadın ile erkekler elbette eşit değiller, erkeklerin böyle muhteşem varlıklara karşı hiç şansı yok</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D92" t="b">
@@ -2278,7 +2278,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Kadın erkek erdemlerine sahipse kaçıp gitmeli ondan.</t>
+          <t>Onun yaşamının yokuş aşağı gittiği yıl, benimki de yokuş aşağı gittti.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2298,7 +2298,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Beni umursuyormuş(!) Bir gece odasında boş ilaç kutusu ve bir oda polisle uğurladım.</t>
+          <t>İstisnası olmaya heves ettiğiniz işler yüzünden bu durumdayız!</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2318,7 +2318,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Benim sonbaharımda ağaçlar yaprak dökmüyor, bir ilmek sallanıyor sadece.</t>
+          <t>Kadın erkek erdemlerine sahipse kaçıp gitmeli ondan.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2338,7 +2338,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Öğrendim ki en sevdiğim dizi "You" 3. sezonda hikaye değişikliğine başvurrmuş.</t>
+          <t>Beni umursuyormuş(!) Bir gece odasında boş ilaç kutusu ve bir oda polisle uğurladım.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2358,7 +2358,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Bu sezon şampiyonluk hayalimiz gerçek olamayacak arkadaşlar.</t>
+          <t>Benim sonbaharımda ağaçlar yaprak dökmüyor, bir ilmek sallanıyor sadece.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2378,7 +2378,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Çok severek izlediğim dizinin son 3 bölümü kaldı sadece.</t>
+          <t>Öğrendim ki en sevdiğim dizi "You" 3. sezonda hikaye değişikliğine başvurrmuş.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2398,17 +2398,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Dün akşam izlediğim film aslında çok da fena değildi.</t>
+          <t>Bu sezon şampiyonluk hayalimiz gerçek olamayacak arkadaşlar.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D99" t="b">
@@ -2418,17 +2418,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bugün dışarıya çıkarken bot giydiğim için ayaklarım ıslanmadı ve sıcak kaldı.</t>
+          <t>Çok severek izlediğim dizinin son 3 bölümü kaldı sadece.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D100" t="b">
@@ -2438,7 +2438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Ayakkabı fiyatları çok pahalı ama indirim kuponu bulduğum için ucuza geldi ve param cebimde kaldı.</t>
+          <t>Dün akşam izlediğim film aslında çok da fena değildi.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2458,7 +2458,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Yakın zamanda bir bağlama kursu vardı. Ona katıldım ve artık bağlama çalabiliyorum.</t>
+          <t>Bugün dışarıya çıkarken bot giydiğim için ayaklarım ıslanmadı ve sıcak kaldı.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2478,7 +2478,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Adam kendini bir turşuya dönüştürdü! Bu gerçekten ama gerçekten aşırı komik bir olay!</t>
+          <t>Ayakkabı fiyatları çok pahalı ama indirim kuponu bulduğum için ucuza geldi ve param cebimde kaldı.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2498,7 +2498,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Kendimi bildim bileli insanlarla iletişim kurma konusunda normalden bir tık fazla becerikliyim.</t>
+          <t>Yakın zamanda bir bağlama kursu vardı. Ona katıldım ve artık bağlama çalabiliyorum.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2518,17 +2518,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Bedenim özgür kalsa neye yarar. İçimde kalanlar ruhumu her gün daha fazla acıtır.</t>
+          <t>Adam kendini bir turşuya dönüştürdü! Bu gerçekten ama gerçekten aşırı komik bir olay!</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D105" t="b">
@@ -2538,17 +2538,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Araba ile yolda giderken benzin bitti ve in cin top oynayan yerde yolda kaldık.</t>
+          <t>Kendimi bildim bileli insanlarla iletişim kurma konusunda normalden bir tık fazla becerikliyim.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D106" t="b">
@@ -2558,7 +2558,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Çocukken beni tam parmağımın ucundan arı sokmuştu canım muazzam yanmıştı.</t>
+          <t>Bedenim özgür kalsa neye yarar. İçimde kalanlar ruhumu her gün daha fazla acıtır.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2578,7 +2578,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Ne kaldı bak ellerimde, biliyorum gülüyorsun. Her adımım daha derine, ölüyorum.</t>
+          <t>Araba ile yolda giderken benzin bitti ve in cin top oynayan yerde yolda kaldık.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2598,17 +2598,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Bu dayanılmaz güzelliğe, sese nasıl hayır diyebilirdim bilmiyorum.</t>
+          <t>Çocukken beni tam parmağımın ucundan arı sokmuştu canım muazzam yanmıştı.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D109" t="b">
@@ -2618,17 +2618,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Kapıdan çıkıtğı anda ayağı takıldı, fakat arkasından onu nazikçe tutan bir el, onu bu kötü durumdan daha içine girmeden kurtardı.</t>
+          <t>Ne kaldı bak ellerimde, biliyorum gülüyorsun. Her adımım daha derine, ölüyorum.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D110" t="b">
@@ -2638,7 +2638,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sosyal medya platformlarında yaptığı birçok başarısız girişimin sonucunda büyük bir başarı yakaladı.</t>
+          <t>Bu dayanılmaz güzelliğe, sese nasıl hayır diyebilirdim bilmiyorum.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2658,7 +2658,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Çok hastaydı fakat  annesini her görüşünde içi ısınır, yumuşak bir gülümseme yerleştirirdi yüzüne.</t>
+          <t>Kapıdan çıkıtğı anda ayağı takıldı, fakat arkasından onu nazikçe tutan bir el, onu bu kötü durumdan daha içine girmeden kurtardı.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2678,7 +2678,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Her hafta okuluna aksatmadan gider, inci gibi notlar tutardı.</t>
+          <t>Sosyal medya platformlarında yaptığı birçok başarısız girişimin sonucunda büyük bir başarı yakaladı.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2698,7 +2698,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Müziğin ilk notalarında kendini kaybediyor, büyük bir zevkle dans etmeye başlıyor.</t>
+          <t>Çok hastaydı fakat  annesini her görüşünde içi ısınır, yumuşak bir gülümseme yerleştirirdi yüzüne.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2718,17 +2718,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Kendi bölümü hakkında şaşırtıcı derecede az fikre sahipti.</t>
+          <t>Her hafta okuluna aksatmadan gider, inci gibi notlar tutardı.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D115" t="b">
@@ -2738,17 +2738,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Bu kadar hızlı gelişen bir teknolojinin duvarları arasında tıkılıp kalan çocuklar, sosyallikten mahrum bir şekilde büyüyor.</t>
+          <t>Müziğin ilk notalarında kendini kaybediyor, büyük bir zevkle dans etmeye başlıyor.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D116" t="b">
@@ -2758,7 +2758,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Öldüğünde çocuklarına üç kuruş bırakamadı, göçtü gitti.</t>
+          <t>İşte makinelerin kapitalist kullanımının muhteşem sonucu!</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2778,17 +2778,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Babamın sözleri benim için paha biçilemezdi</t>
+          <t>Kendi bölümü hakkında şaşırtıcı derecede az fikre sahipti.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D118" t="b">
@@ -2798,17 +2798,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Evde kimmse yokken bağırarak şarkı söylemeye bayılıyorum</t>
+          <t>Bu kadar hızlı gelişen bir teknolojinin duvarları arasında tıkılıp kalan çocuklar, sosyallikten mahrum bir şekilde büyüyor.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D119" t="b">
@@ -2818,7 +2818,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Savaşlarda taraflar kazanmak uğruna onursuzca davranabiliyorlar</t>
+          <t>Bir avuç para için yapılacak iş mi bu Allah aşkına!</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2838,7 +2838,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Artık yaşamaktan keyif almadığımı farkettim</t>
+          <t>Öldüğünde çocuklarına üç kuruş bırakamadı, göçtü gitti.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2858,17 +2858,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Hep hayalini kurduğum bölümü kazanamadım</t>
+          <t>Babamın sözleri benim için paha biçilemezdi</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D122" t="b">
@@ -2878,17 +2878,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Bilgisayarım sürekli donduğu için işlerimi yapamıyorum</t>
+          <t>Evde kimmse yokken bağırarak şarkı söylemeye bayılıyorum</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D123" t="b">
@@ -2898,20 +2898,100 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>Savaşlarda taraflar kazanmak uğruna onursuzca davranabiliyorlar</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Pozitif</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Negatif</t>
+        </is>
+      </c>
+      <c r="D124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Artık yaşamaktan keyif almadığımı farkettim</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Pozitif</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Negatif</t>
+        </is>
+      </c>
+      <c r="D125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Hep hayalini kurduğum bölümü kazanamadım</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Pozitif</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Negatif</t>
+        </is>
+      </c>
+      <c r="D126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Bilgisayarım sürekli donduğu için işlerimi yapamıyorum</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Pozitif</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Negatif</t>
+        </is>
+      </c>
+      <c r="D127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
           <t>Bu haberi duyana kadar günüm çok güzel geçiyordu</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D124" t="b">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Pozitif</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Negatif</t>
+        </is>
+      </c>
+      <c r="D128" t="b">
         <v>0</v>
       </c>
     </row>

--- a/hatalar.xlsx
+++ b/hatalar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bunca saat boyunca bütün işittiğin bu sözlerden sonra, uyu uyuyabilirsen!</t>
+          <t>Evet, seni hiç sevmedim.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,7 +478,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sen gel de kolaysa bu kadar fazla işin içinden çık bakalım!</t>
+          <t>Bunca saat boyunca bütün işittiğin bu sözlerden sonra, uyu uyuyabilirsen!</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -498,7 +498,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sokaklar bugün yapılacak 29 ekim için olan tören yüzünden oldukça kalabalıktı.</t>
+          <t>Sen gel de kolaysa bu kadar fazla işin içinden çık bakalım!</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -598,17 +598,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gördün mü iki yüzlüyü nasıl da bizi sattı?</t>
+          <t>Dün okuldan eve dönerken metroda gördüğü güzel kıza aşık olduğunu söyledi.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D9" t="b">
@@ -618,17 +618,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bu sayfada paylaşılan oyun benim beklediğim kadar kötü çıkmadı.</t>
+          <t>Gördün mü iki yüzlüyü nasıl da bizi sattı?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D10" t="b">
@@ -638,17 +638,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Okulun yeniden açılması umduğum kadar kötü olmadı.</t>
+          <t>Yaz mevsimi çok sıcak olduğundan hoşuma gitmiyor.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D11" t="b">
@@ -658,7 +658,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Şu uygulamadan bulduğum videoyu soluksuz bir şekilde izledim.</t>
+          <t>Bu sayfada paylaşılan oyun benim beklediğim kadar kötü çıkmadı.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -678,7 +678,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bugüne kadar gördüğüm en abartılmış oyuncu olma yolunda ilerliyorsun.</t>
+          <t>Okulun yeniden açılması umduğum kadar kötü olmadı.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">negatif </t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D13" t="b">
@@ -698,17 +698,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bu güzel havada başıma böyle bir şeyin gelmesi beni çok rahatsız ediyor.</t>
+          <t>Şu uygulamadan bulduğum videoyu soluksuz bir şekilde izledim.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D14" t="b">
@@ -718,17 +718,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Senin yaptıkların yüzünden sevdiğim işleri yapamamaktan nefret ediyorum.</t>
+          <t>Bugüne kadar gördüğüm en abartılmış oyuncu olma yolunda ilerliyorsun.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t xml:space="preserve">negatif </t>
         </is>
       </c>
       <c r="D15" t="b">
@@ -738,7 +738,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bu paragraflar daha önceki gördüğüm paragraflardan daha uzun olamazdı!</t>
+          <t>Bu güzel havada başıma böyle bir şeyin gelmesi beni çok rahatsız ediyor.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -758,17 +758,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bu kaldırım taşlarının bu kadar güzel olduğunu daha önce fark etmemiştim.</t>
+          <t>Senin yaptıkların yüzünden sevdiğim işleri yapamamaktan nefret ediyorum.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D17" t="b">
@@ -778,7 +778,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Rezalet bir hizmet anlayışınız olduğu için sizi kınıyorum.</t>
+          <t>Bu paragraflar daha önceki gördüğüm paragraflardan daha uzun olamazdı!</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -798,7 +798,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Geri bildirim hızı, bu kadar hızlı olan bir site gördüğümü hatırlamıyorum.</t>
+          <t>Bu kaldırım taşlarının bu kadar güzel olduğunu daha önce fark etmemiştim.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -818,7 +818,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Yapılan etkinlikteki yüzlerce katılımcıyı görüp heyecanlanmamak elde değildi.</t>
+          <t>Geri bildirim hızı, bu kadar hızlı olan bir site gördüğümü hatırlamıyorum.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D20" t="b">
@@ -838,7 +838,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dürüstlük onun için en önemli şeydi, kimseye yalan söylemezdi.</t>
+          <t>Yapılan etkinlikteki yüzlerce katılımcıyı görüp heyecanlanmamak elde değildi.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -858,7 +858,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Çok duygusal bir insan olduğu için söyleyeceklerimizi iki kere düşünür, onu kırmamaya dikkat ederdik.</t>
+          <t>Dürüstlük onun için en önemli şeydi, kimseye yalan söylemezdi.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -878,7 +878,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>İyi dostlar destek olur. En iyi dostlar ise hiçbir şey olmamış gibi davranır.</t>
+          <t>Çok duygusal bir insan olduğu için söyleyeceklerimizi iki kere düşünür, onu kırmamaya dikkat ederdik.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -898,7 +898,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Merhametli olmak ağlayanla ağlamak değildir. Ağlayanın gözyaşını dindirecek bir çözüm yolu bulmak ya bulmaya çalışmaktır.</t>
+          <t>Yaptığı başarılı işlere rağmen çok mütevazi bir insan olduğundan dolayı övülmeyi hiç sevmezdi.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -918,7 +918,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Yaptığı başarılı işlere rağmen çok mütevazi bir insan olduğundan dolayı övülmeyi hiç sevmezdi.</t>
+          <t>Aylarca yılmadan çalışan ekip, ortaya mükemmel bir proje çıkartarak dereceye girdi.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -938,17 +938,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aylarca yılmadan çalışan ekip, ortaya mükemmel bir proje çıkartarak dereceye girdi.</t>
+          <t>Egoist bir insan olduğu için onunla konuşmamayı tercih ediyorum.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D26" t="b">
@@ -958,7 +958,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Film galasında giydiği modası geçmiş giysilerle hepimizin gözlerini kanattı.</t>
+          <t>Kendini beğenmiş, burnu havada dolanan mızmızın tekiydi.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -978,17 +978,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Başımın ağrısı o kadar kuvvetliydi ki öleceğimi zannettim.</t>
+          <t>Bu eser serginin olmazsa olmaz eşsiz parçalarından birisidir.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D28" t="b">
@@ -998,17 +998,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Karşıya geçmek isterken kamyonun altında kalan kadının hayatını kaybettiği anlar yayında.</t>
+          <t>Yarınki doğum günü partimi düşündükçe heyecandan yerimde duramıyorum.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D29" t="b">
@@ -1018,17 +1018,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Egoist bir insan olduğu için onunla konuşmamayı tercih ediyorum.</t>
+          <t>Ne olursa olsun yanımda durmaktan vazgeçmediğin için teşekkür ederim.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D30" t="b">
@@ -1038,7 +1038,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>İzlediğimiz film o kadar korkunçtu ki kalp krizi geçirmemize ramak kalmıştı.</t>
+          <t>Beklediğim  kadar iyi bir tecrübe edinemediğim için üzgünüm.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D31" t="b">
@@ -1058,17 +1058,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Bu eser serginin olmazsa olmaz eşsiz parçalarından birisidir.</t>
+          <t>Onun açısından düşününce bunun faydalı olacağını düşünmüyorum.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D32" t="b">
@@ -1078,7 +1078,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Yarınki doğum günü partimi düşündükçe heyecandan yerimde duramıyorum.</t>
+          <t>Başladığın bir işi bu kadar kusursuz yapılabileceğini hiç hayal etmemiştim.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1098,17 +1098,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Beklediğim  kadar iyi bir tecrübe edinemediğim için üzgünüm.</t>
+          <t>Durduğumuz dinlenme tesisi muhteşem bir manzaraya sahipti .</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D34" t="b">
@@ -1118,17 +1118,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Onun açısından düşününce bunun faydalı olacağını düşünmüyorum.</t>
+          <t>Annesi çocuğunun kötü bir şey yaptığını düşünmediği için onu uyarma gereği duymadı.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D35" t="b">
@@ -1138,7 +1138,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Başladığın bir işi bu kadar kusursuz yapılabileceğini hiç hayal etmemiştim.</t>
+          <t>Güvendiğim kişilerle birlikte olunca hiçbir şüphe duymadan istediğim yolda yürümeye devam edebiliyorum.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1158,7 +1158,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Durduğumuz dinlenme tesisi muhteşem bir manzaraya sahipti .</t>
+          <t>Bu hafta sonu girdiğim ehliyet sınavı çok iyi geçtiği için yarın akşam arkadaşlarımla kutlama yemeğine çıkacağız.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1178,7 +1178,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Annesi çocuğunun kötü bir şey yaptığını düşünmediği için onu uyarma gereği duymadı.</t>
+          <t>Tatilde kaldığım 5 yıldızlı otelin balkonunun manzarasının güzelliği hala aklımdan çıkmıyor.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1198,7 +1198,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Güvendiğim kişilerle birlikte olunca hiçbir şüphe duymadan istediğim yolda yürümeye devam edebiliyorum.</t>
+          <t>Babasının da dediği gibi birkaç günlük tatil fikri fena değilmiş.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1218,7 +1218,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Bu hafta sonu girdiğim ehliyet sınavı çok iyi geçtiği için yarın akşam arkadaşlarımla kutlama yemeğine çıkacağız.</t>
+          <t>Okula gelmeden önce aldığı güzel haber ile artık içi içine sığmıyordu.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1238,17 +1238,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Tatilde kaldığım 5 yıldızlı otelin balkonunun manzarasının güzelliği hala aklımdan çıkmıyor.</t>
+          <t>Yapmak isteyip de yapmaya fırsat bulamadığım çok şey var,dedi.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D41" t="b">
@@ -1258,7 +1258,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Akşam yemeği için vermiş olduğum yemek siparişim çok geç geldiğinden dolayı yemekler soğumuştu.</t>
+          <t>Durumun iyi olacağına dair küçük bir umudu dahi yoktu artık.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1278,17 +1278,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Babasının da dediği gibi birkaç günlük tatil fikri fena değilmiş.</t>
+          <t>Okula gelirken giydiği mavi gömlek ile hiç de iyi görünmüyordu</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D43" t="b">
@@ -1298,17 +1298,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Okula gelmeden önce aldığı güzel haber ile artık içi içine sığmıyordu.</t>
+          <t>Çalan şarkı ile birlikte aklına gelenler yüzünden gözleri dolmuştu.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D44" t="b">
@@ -1318,7 +1318,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Durumun iyi olacağına dair küçük bir umudu dahi yoktu artık.</t>
+          <t>Evden gelen sesler ile birlikte hırsız girdiğini düşünüp çok kokrmuştu.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1338,7 +1338,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Okula gelirken giydiği mavi gömlek ile hiç de iyi görünmüyordu</t>
+          <t>Gün geçtikçe hayata dair umutlarının artık tamamen tükendiğini düşünüyordu</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1358,17 +1358,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Çalan şarkı ile birlikte aklına gelenler yüzünden gözleri dolmuştu.</t>
+          <t>İnan ben de çocukluğumun geçtiği sokakları çok özledim</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D47" t="b">
@@ -1378,7 +1378,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Evden gelen sesler ile birlikte hırsız girdiğini düşünüp çok kokrmuştu.</t>
+          <t>Maaşım artık bana yetmemeye başladı</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1398,7 +1398,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Begüm ablasıyla birlikte izlediği filmden çok etkilenmiş günlerce ağlamıştı.</t>
+          <t>Bu kitaptaki ana karakterin babası çok itici bir insan</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1418,7 +1418,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Gün geçtikçe hayata dair umutlarının artık tamamen tükendiğini düşünüyordu</t>
+          <t>Dün arkadaşım arabası ile kaza yapmış</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1438,17 +1438,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>En zor anında insanın yanında olan ailesi ve dostlarıymış</t>
+          <t>Ankaranın yolları çok taşlıymış</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D51" t="b">
@@ -1458,17 +1458,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>İnan ben de çocukluğumun geçtiği sokakları çok özledim</t>
+          <t xml:space="preserve">Ödevi yaparken artık elim ağrımaya başladı </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D52" t="b">
@@ -1478,7 +1478,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Maaşım artık bana yetmemeye başladı</t>
+          <t>Venom filmi baya kötüymüş</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1498,7 +1498,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Bu kitaptaki ana karakterin babası çok itici bir insan</t>
+          <t>Dün yemeği yaparken yemeği yakmışım</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1518,17 +1518,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Dün arkadaşım arabası ile kaza yapmış</t>
+          <t xml:space="preserve">	Dürüst olmak gerekirse benim de kalbim ona karşı boş değil.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D55" t="b">
@@ -1538,17 +1538,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Ankaranın yolları çok taşlıymış</t>
+          <t xml:space="preserve">	Kafamın içinde bu bahsettiğin konulara benzer düşünceler yok dersem yalan olur.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D56" t="b">
@@ -1558,17 +1558,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ödevi yaparken artık elim ağrımaya başladı </t>
+          <t xml:space="preserve">	Geçen cumartesi günü gittiğiniz okulun tanışma partisine çağırsaydın gelmez miydim?</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D57" t="b">
@@ -1578,17 +1578,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Malesef yarın gelemeyeceğim babam hastalandı</t>
+          <t xml:space="preserve">	Derse yetişmem için yakalamam gereken son otobüsü yakalamayı başardım ve derse yetiştim.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D58" t="b">
@@ -1598,17 +1598,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Venom filmi baya kötüymüş</t>
+          <t xml:space="preserve">	Okulumuzu temsil eden takımımız bilgi yarışmasından derece ile ayrılmış bulunmakta.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>pozitif</t>
         </is>
       </c>
       <c r="D59" t="b">
@@ -1618,7 +1618,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Dün yemeği yaparken yemeği yakmışım</t>
+          <t xml:space="preserve">	Gözlerimin içine bak ve söyle, böyle olmasını ben mi istedim?</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1638,17 +1638,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Dürüst olmak gerekirse benim de kalbim ona karşı boş değil.</t>
+          <t xml:space="preserve">	Başımıza ne işler açtın sen, çık çıkabilirsen bu işin içinden.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D61" t="b">
@@ -1658,17 +1658,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Kafamın içinde bu bahsettiğin konulara benzer düşünceler yok dersem yalan olur.</t>
+          <t xml:space="preserve">	Alışveriş sitesinden siparişini verdiğim tekerlekli sandalye yine zamanında bana ulaşmayacak.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D62" t="b">
@@ -1678,17 +1678,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Geçen cumartesi günü gittiğiniz okulun tanışma partisine çağırsaydın gelmez miydim?</t>
+          <t xml:space="preserve">	Çok sevdiğim bir yakın dostumla ettiğimiz tartışma sonucu birbirimize küstük.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D63" t="b">
@@ -1698,17 +1698,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Derse yetişmem için yakalamam gereken son otobüsü yakalamayı başardım ve derse yetiştim.</t>
+          <t xml:space="preserve">	Yemekhane sırasının uzunluğu sebebiyle sıra bana geldiğinde tatlı alamamış oldum.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D64" t="b">
@@ -1718,17 +1718,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Okulumuzu temsil eden takımımız bilgi yarışmasından derece ile ayrılmış bulunmakta.</t>
+          <t xml:space="preserve">	Arkadaşımı ne kadar sevsem de güzel olmayan sesi ile şarkı söylemesi beni rahatsız ediyor.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>pozitif</t>
+          <t>negatif</t>
         </is>
       </c>
       <c r="D65" t="b">
@@ -1738,7 +1738,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Gözlerimin içine bak ve söyle, böyle olmasını ben mi istedim?</t>
+          <t xml:space="preserve">	Kendisi ne kadar iyi bir insan olsa da öfke sorunları var.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1758,7 +1758,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Başımıza ne işler açtın sen, çık çıkabilirsen bu işin içinden.</t>
+          <t xml:space="preserve">	Uzak mesafede oturduğum için sabah erken kalkmak fazlasıyla yorucu oluyor.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1778,17 +1778,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Telefon uygulamasından söylemiş olduğum yemek, uygulamada yazan süreden geç geldi.</t>
+          <t>Bir programlama dilini öğnrendikten sonra diğerlerini öğrenmek çok daha kolay geliyor.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D68" t="b">
@@ -1798,17 +1798,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Alışveriş sitesinden siparişini verdiğim tekerlekli sandalye yine zamanında bana ulaşmayacak.</t>
+          <t>Bunca çalışma ve emekten sonra nihayet tüm derslerini geçebilmişti.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D69" t="b">
@@ -1818,7 +1818,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Yemekhane sırasının uzunluğu sebebiyle sıra bana geldiğinde tatlı alamamış oldum.</t>
+          <t>RGB ekipmanları sevsem de fazla ışıklar beni çok rahatsız ediyor.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D70" t="b">
@@ -1838,7 +1838,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Arkadaşımı ne kadar sevsem de güzel olmayan sesi ile şarkı söylemesi beni rahatsız ediyor.</t>
+          <t>Dar sokaklar genelde insanlara güven vermezler.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D71" t="b">
@@ -1858,7 +1858,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Kendisi ne kadar iyi bir insan olsa da öfke sorunları var.</t>
+          <t>Bazı romanların olayları fazla uzatması beni o romandan soğutuyor.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D72" t="b">
@@ -1878,17 +1878,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Uzak mesafede oturduğum için sabah erken kalkmak fazlasıyla yorucu oluyor.</t>
+          <t>Evdeki sakinlik ve rahatı başka bir şeye değişmem.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D73" t="b">
@@ -1898,7 +1898,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Bir programlama dilini öğnrendikten sonra diğerlerini öğrenmek çok daha kolay geliyor.</t>
+          <t>Zamanında ilgilendiği felç hastasının şu anda yürüyebiliyor olduğu gördüğünde mutluluktan göz yaşlarını tutamadı.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1918,7 +1918,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Bunca çalışma ve emekten sonra nihayet tüm derslerini geçebilmişti.</t>
+          <t>İki şirkette yaptıkları ortak anlaşmadan dolayı toplantıdan memnun ayrıldılar.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1938,17 +1938,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Kasa bilgisayarlar daha sessiz ve soğuk olsalar da dizüstü bilgisayarları daha çok seviyorum.</t>
+          <t>Gece yarısı gençlerin sokaktaki bağrışmalarını duyan yaşlı adam sinirle homurdanarak yatağından kalktı.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D76" t="b">
@@ -1958,7 +1958,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>RGB ekipmanları sevsem de fazla ışıklar beni çok rahatsız ediyor.</t>
+          <t>Saatlerdir sınav kağıtlarını okumaktan yorulmuş okuma gözlüğü artık canını yakmaya başlamıştı.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1978,7 +1978,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Bazı romanların olayları fazla uzatması beni o romandan soğutuyor.</t>
+          <t>Doktor covid testinin pozitif çıktığını söylediğinde kendini bir an çok kötü hissetti.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1998,17 +1998,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Küçük ama çok işlevsel alet ve cihazlara hayranım.</t>
+          <t>Ayrıca belirtmeliyim ki ülke ekonomimizin bu kadar kötü olması beni de üzmüyor değil.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D79" t="b">
@@ -2018,17 +2018,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Evdeki sakinlik ve rahatı başka bir şeye değişmem.</t>
+          <t>Yeğenimin gece köpek saldırısına uğraması ailedeki herkesin keyfini kaçırdı.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D80" t="b">
@@ -2038,17 +2038,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Zamanında ilgilendiği felç hastasının şu anda yürüyebiliyor olduğu gördüğünde mutluluktan göz yaşlarını tutamadı.</t>
+          <t>Bu tarz olayları bu kadar sık yaşamak onu yormuş ve bıktırmıştı hayattan.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D81" t="b">
@@ -2058,17 +2058,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>İki şirkette yaptıkları ortak anlaşmadan dolayı toplantıdan memnun ayrıldılar.</t>
+          <t>Yorucu günden sonra koltukta uyuyakalmış gördüğü kabusun etkisiyle ter içinde çığlıkla uyandı.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D82" t="b">
@@ -2078,17 +2078,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Gece yarısı gençlerin sokaktaki bağrışmalarını duyan yaşlı adam sinirle homurdanarak yatağından kalktı.</t>
+          <t>Bazı insanların hala makineleşmemiş olması beni mutlu ediyor.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D83" t="b">
@@ -2098,17 +2098,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Saatlerdir sınav kağıtlarını okumaktan yorulmuş okuma gözlüğü artık canını yakmaya başlamıştı.</t>
+          <t>Bu pis dünyada insan görmemiş ormanların güzelliği güneşin doğmasını sağlıyor.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D84" t="b">
@@ -2118,17 +2118,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Doktor covid testinin pozitif çıktığını söylediğinde kendini bir an çok kötü hissetti.</t>
+          <t>Kadın ile erkekler elbette eşit değiller, erkeklerin böyle muhteşem varlıklara karşı hiç şansı yok</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D85" t="b">
@@ -2138,17 +2138,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Ayrıca belirtmeliyim ki ülke ekonomimizin bu kadar kötü olması beni de üzmüyor değil.</t>
+          <t>Öyle güzel gözleri var ki orda kayboluyorum, tüm dünya blurlanmış ve tek gördüğüm o gözler.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D86" t="b">
@@ -2158,7 +2158,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Yeğenimin gece köpek saldırısına uğraması ailedeki herkesin keyfini kaçırdı.</t>
+          <t>Onun yaşamının yokuş aşağı gittiği yıl, benimki de yokuş aşağı gittti.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2178,7 +2178,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Bu tarz olayları bu kadar sık yaşamak onu yormuş ve bıktırmıştı hayattan.</t>
+          <t>İstisnası olmaya heves ettiğiniz işler yüzünden bu durumdayız!</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Yorucu günden sonra koltukta uyuyakalmış gördüğü kabusun etkisiyle ter içinde çığlıkla uyandı.</t>
+          <t>Kadın erkek erdemlerine sahipse kaçıp gitmeli ondan.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2218,17 +2218,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Bazı insanların hala makineleşmemiş olması beni mutlu ediyor.</t>
+          <t>Beni umursuyormuş(!) Bir gece odasında boş ilaç kutusu ve bir oda polisle uğurladım.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D90" t="b">
@@ -2238,17 +2238,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Bu pis dünyada insan görmemiş ormanların güzelliği güneşin doğmasını sağlıyor.</t>
+          <t>Benim sonbaharımda ağaçlar yaprak dökmüyor, bir ilmek sallanıyor sadece.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D91" t="b">
@@ -2258,17 +2258,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Kadın ile erkekler elbette eşit değiller, erkeklerin böyle muhteşem varlıklara karşı hiç şansı yok</t>
+          <t>Öğrendim ki en sevdiğim dizi "You" 3. sezonda hikaye değişikliğine başvurrmuş.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D92" t="b">
@@ -2278,7 +2278,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Onun yaşamının yokuş aşağı gittiği yıl, benimki de yokuş aşağı gittti.</t>
+          <t>Bu sezon şampiyonluk hayalimiz gerçek olamayacak arkadaşlar.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2298,7 +2298,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>İstisnası olmaya heves ettiğiniz işler yüzünden bu durumdayız!</t>
+          <t>Çok severek izlediğim dizinin son 3 bölümü kaldı sadece.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2318,17 +2318,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Kadın erkek erdemlerine sahipse kaçıp gitmeli ondan.</t>
+          <t>Dün akşam izlediğim film aslında çok da fena değildi.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D95" t="b">
@@ -2338,17 +2338,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Beni umursuyormuş(!) Bir gece odasında boş ilaç kutusu ve bir oda polisle uğurladım.</t>
+          <t>Aynanın karşısına geçtiğimde gördüğüm kişinin çok yakışıklı olduğunu düşünüyorum.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D96" t="b">
@@ -2358,17 +2358,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Benim sonbaharımda ağaçlar yaprak dökmüyor, bir ilmek sallanıyor sadece.</t>
+          <t>Bugün dışarıya çıkarken bot giydiğim için ayaklarım ıslanmadı ve sıcak kaldı.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D97" t="b">
@@ -2378,17 +2378,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Öğrendim ki en sevdiğim dizi "You" 3. sezonda hikaye değişikliğine başvurrmuş.</t>
+          <t>Bugün hava yağmurlu olmasına rağmen otobüs zamanında geldi ve işe geç kalmadığım için yöneticim beni tebrik etti.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D98" t="b">
@@ -2398,17 +2398,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Bu sezon şampiyonluk hayalimiz gerçek olamayacak arkadaşlar.</t>
+          <t>Yakın zamanda bir bağlama kursu vardı. Ona katıldım ve artık bağlama çalabiliyorum.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D99" t="b">
@@ -2418,7 +2418,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Çok severek izlediğim dizinin son 3 bölümü kaldı sadece.</t>
+          <t>Bedenim özgür kalsa neye yarar. İçimde kalanlar ruhumu her gün daha fazla acıtır.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2438,17 +2438,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Dün akşam izlediğim film aslında çok da fena değildi.</t>
+          <t>Araba ile yolda giderken benzin bitti ve in cin top oynayan yerde yolda kaldık.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D101" t="b">
@@ -2458,17 +2458,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Bugün dışarıya çıkarken bot giydiğim için ayaklarım ıslanmadı ve sıcak kaldı.</t>
+          <t>Çocukken beni tam parmağımın ucundan arı sokmuştu canım muazzam yanmıştı.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D102" t="b">
@@ -2478,17 +2478,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Ayakkabı fiyatları çok pahalı ama indirim kuponu bulduğum için ucuza geldi ve param cebimde kaldı.</t>
+          <t>Ne kaldı bak ellerimde, biliyorum gülüyorsun. Her adımım daha derine, ölüyorum.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D103" t="b">
@@ -2498,7 +2498,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Yakın zamanda bir bağlama kursu vardı. Ona katıldım ve artık bağlama çalabiliyorum.</t>
+          <t>Bu dayanılmaz güzelliğe, sese nasıl hayır diyebilirdim bilmiyorum.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2518,7 +2518,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Adam kendini bir turşuya dönüştürdü! Bu gerçekten ama gerçekten aşırı komik bir olay!</t>
+          <t>Sosyal medya platformlarında yaptığı birçok başarısız girişimin sonucunda büyük bir başarı yakaladı.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2538,7 +2538,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Kendimi bildim bileli insanlarla iletişim kurma konusunda normalden bir tık fazla becerikliyim.</t>
+          <t>Çok hastaydı fakat  annesini her görüşünde içi ısınır, yumuşak bir gülümseme yerleştirirdi yüzüne.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2558,17 +2558,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Bedenim özgür kalsa neye yarar. İçimde kalanlar ruhumu her gün daha fazla acıtır.</t>
+          <t>Her hafta okuluna aksatmadan gider, inci gibi notlar tutardı.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D107" t="b">
@@ -2578,17 +2578,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Araba ile yolda giderken benzin bitti ve in cin top oynayan yerde yolda kaldık.</t>
+          <t>Müziğin ilk notalarında kendini kaybediyor, büyük bir zevkle dans etmeye başlıyor.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D108" t="b">
@@ -2598,7 +2598,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Çocukken beni tam parmağımın ucundan arı sokmuştu canım muazzam yanmıştı.</t>
+          <t>İşte makinelerin kapitalist kullanımının muhteşem sonucu!</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2618,7 +2618,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Ne kaldı bak ellerimde, biliyorum gülüyorsun. Her adımım daha derine, ölüyorum.</t>
+          <t>Kendi bölümü hakkında şaşırtıcı derecede az fikre sahipti.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2638,17 +2638,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Bu dayanılmaz güzelliğe, sese nasıl hayır diyebilirdim bilmiyorum.</t>
+          <t>Bu kadar hızlı gelişen bir teknolojinin duvarları arasında tıkılıp kalan çocuklar, sosyallikten mahrum bir şekilde büyüyor.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D111" t="b">
@@ -2658,17 +2658,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Kapıdan çıkıtğı anda ayağı takıldı, fakat arkasından onu nazikçe tutan bir el, onu bu kötü durumdan daha içine girmeden kurtardı.</t>
+          <t>Bir avuç para için yapılacak iş mi bu Allah aşkına!</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D112" t="b">
@@ -2678,17 +2678,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sosyal medya platformlarında yaptığı birçok başarısız girişimin sonucunda büyük bir başarı yakaladı.</t>
+          <t>Öldüğünde çocuklarına üç kuruş bırakamadı, göçtü gitti.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D113" t="b">
@@ -2698,17 +2698,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Çok hastaydı fakat  annesini her görüşünde içi ısınır, yumuşak bir gülümseme yerleştirirdi yüzüne.</t>
+          <t>At merakı, attan düşüp belini kırmasıyla son buldu.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D114" t="b">
@@ -2718,7 +2718,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Her hafta okuluna aksatmadan gider, inci gibi notlar tutardı.</t>
+          <t>Okula giderken tatlı bir kediyle karşılaştım</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2738,7 +2738,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Müziğin ilk notalarında kendini kaybediyor, büyük bir zevkle dans etmeye başlıyor.</t>
+          <t>Babamın sözleri benim için paha biçilemezdi</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2758,17 +2758,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>İşte makinelerin kapitalist kullanımının muhteşem sonucu!</t>
+          <t>Bugün en iyi çocukluk arkadaşımla karşılaştım</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D117" t="b">
@@ -2778,17 +2778,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Kendi bölümü hakkında şaşırtıcı derecede az fikre sahipti.</t>
+          <t>Evde kimmse yokken bağırarak şarkı söylemeye bayılıyorum</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D118" t="b">
@@ -2798,7 +2798,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Bu kadar hızlı gelişen bir teknolojinin duvarları arasında tıkılıp kalan çocuklar, sosyallikten mahrum bir şekilde büyüyor.</t>
+          <t>Savaşlarda taraflar kazanmak uğruna onursuzca davranabiliyorlar</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2818,7 +2818,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Bir avuç para için yapılacak iş mi bu Allah aşkına!</t>
+          <t>Artık yaşamaktan keyif almadığımı farkettim</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2838,7 +2838,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Öldüğünde çocuklarına üç kuruş bırakamadı, göçtü gitti.</t>
+          <t>Hep hayalini kurduğum bölümü kazanamadım</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2858,17 +2858,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Babamın sözleri benim için paha biçilemezdi</t>
+          <t>Bilgisayarım sürekli donduğu için işlerimi yapamıyorum</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D122" t="b">
@@ -2878,17 +2878,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Evde kimmse yokken bağırarak şarkı söylemeye bayılıyorum</t>
+          <t>Bu haberi duyana kadar günüm çok güzel geçiyordu</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D123" t="b">
@@ -2898,7 +2898,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Savaşlarda taraflar kazanmak uğruna onursuzca davranabiliyorlar</t>
+          <t>Sıcak su olmadığı için duş alamadım</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2912,86 +2912,6 @@
         </is>
       </c>
       <c r="D124" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Artık yaşamaktan keyif almadığımı farkettim</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D125" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Hep hayalini kurduğum bölümü kazanamadım</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D126" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Bilgisayarım sürekli donduğu için işlerimi yapamıyorum</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D127" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Bu haberi duyana kadar günüm çok güzel geçiyordu</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D128" t="b">
         <v>0</v>
       </c>
     </row>

--- a/hatalar.xlsx
+++ b/hatalar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2618,7 +2618,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Kendi bölümü hakkında şaşırtıcı derecede az fikre sahipti.</t>
+          <t>Kibrit çöpü gibi kolları, bardağı kaldırmaktan bile acizdi.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2638,7 +2638,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Bu kadar hızlı gelişen bir teknolojinin duvarları arasında tıkılıp kalan çocuklar, sosyallikten mahrum bir şekilde büyüyor.</t>
+          <t>Kendi bölümü hakkında şaşırtıcı derecede az fikre sahipti.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2658,7 +2658,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Bir avuç para için yapılacak iş mi bu Allah aşkına!</t>
+          <t>Bu kadar hızlı gelişen bir teknolojinin duvarları arasında tıkılıp kalan çocuklar, sosyallikten mahrum bir şekilde büyüyor.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2678,7 +2678,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Öldüğünde çocuklarına üç kuruş bırakamadı, göçtü gitti.</t>
+          <t>Bir avuç para için yapılacak iş mi bu Allah aşkına!</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2698,7 +2698,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>At merakı, attan düşüp belini kırmasıyla son buldu.</t>
+          <t>Öldüğünde çocuklarına üç kuruş bırakamadı, göçtü gitti.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2718,17 +2718,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Okula giderken tatlı bir kediyle karşılaştım</t>
+          <t>At merakı, attan düşüp belini kırmasıyla son buldu.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="D115" t="b">
@@ -2738,7 +2738,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Babamın sözleri benim için paha biçilemezdi</t>
+          <t>Okula giderken tatlı bir kediyle karşılaştım</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2758,7 +2758,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Bugün en iyi çocukluk arkadaşımla karşılaştım</t>
+          <t>Babamın sözleri benim için paha biçilemezdi</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2778,7 +2778,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Evde kimmse yokken bağırarak şarkı söylemeye bayılıyorum</t>
+          <t>Bugün en iyi çocukluk arkadaşımla karşılaştım</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2798,17 +2798,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Savaşlarda taraflar kazanmak uğruna onursuzca davranabiliyorlar</t>
+          <t>Evde kimmse yokken bağırarak şarkı söylemeye bayılıyorum</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D119" t="b">
@@ -2818,7 +2818,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Artık yaşamaktan keyif almadığımı farkettim</t>
+          <t>Savaşlarda taraflar kazanmak uğruna onursuzca davranabiliyorlar</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2838,7 +2838,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Hep hayalini kurduğum bölümü kazanamadım</t>
+          <t>Artık yaşamaktan keyif almadığımı farkettim</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2858,7 +2858,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Bilgisayarım sürekli donduğu için işlerimi yapamıyorum</t>
+          <t>Hep hayalini kurduğum bölümü kazanamadım</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2878,7 +2878,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Bu haberi duyana kadar günüm çok güzel geçiyordu</t>
+          <t>Bilgisayarım sürekli donduğu için işlerimi yapamıyorum</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2898,20 +2898,40 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>Bu haberi duyana kadar günüm çok güzel geçiyordu</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Pozitif</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Negatif</t>
+        </is>
+      </c>
+      <c r="D124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
           <t>Sıcak su olmadığı için duş alamadım</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Negatif</t>
-        </is>
-      </c>
-      <c r="D124" t="b">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Pozitif</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Negatif</t>
+        </is>
+      </c>
+      <c r="D125" t="b">
         <v>0</v>
       </c>
     </row>
